--- a/input_estimates_lukas.xlsx
+++ b/input_estimates_lukas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a631459e6cf3f3cb/Uni/Master/2021_ss_decision-analysis/Agroforestry/Nuts_and_chicken/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{0B96897B-0945-4460-980E-6D917B39D819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{313B8152-D30B-4D37-B9F7-EF27204C0A40}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{0B96897B-0945-4460-980E-6D917B39D819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58E9F07E-637E-42F3-A19F-4E76B4B3B280}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="45">
   <si>
     <t>variable</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>0.3</t>
+  </si>
+  <si>
+    <t>pro Huhn</t>
+  </si>
+  <si>
+    <t>pro Baum</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>necessary??</t>
   </si>
 </sst>
 </file>
@@ -468,7 +480,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,6 +527,9 @@
       <c r="E2" t="s">
         <v>36</v>
       </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -532,6 +547,9 @@
       <c r="E3" t="s">
         <v>36</v>
       </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -549,6 +567,9 @@
       <c r="E4" t="s">
         <v>36</v>
       </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -566,6 +587,9 @@
       <c r="E5" t="s">
         <v>36</v>
       </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -583,6 +607,9 @@
       <c r="E6" t="s">
         <v>36</v>
       </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -600,6 +627,9 @@
       <c r="E7" t="s">
         <v>36</v>
       </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -617,6 +647,9 @@
       <c r="E8" t="s">
         <v>36</v>
       </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -634,6 +667,9 @@
       <c r="E9" t="s">
         <v>36</v>
       </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -651,6 +687,9 @@
       <c r="E10" t="s">
         <v>36</v>
       </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -668,22 +707,28 @@
       <c r="E11" t="s">
         <v>36</v>
       </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -691,16 +736,19 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
       </c>
       <c r="D13">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -719,6 +767,9 @@
       <c r="E14" t="s">
         <v>36</v>
       </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -736,6 +787,9 @@
       <c r="E15" t="s">
         <v>36</v>
       </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -753,6 +807,9 @@
       <c r="E16" t="s">
         <v>36</v>
       </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -770,6 +827,9 @@
       <c r="E17" t="s">
         <v>36</v>
       </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -786,6 +846,9 @@
       </c>
       <c r="E18" t="s">
         <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">

--- a/input_estimates_lukas.xlsx
+++ b/input_estimates_lukas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a631459e6cf3f3cb/Uni/Master/2021_ss_decision-analysis/Agroforestry/Nuts_and_chicken/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{0B96897B-0945-4460-980E-6D917B39D819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58E9F07E-637E-42F3-A19F-4E76B4B3B280}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{0B96897B-0945-4460-980E-6D917B39D819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{492FE78B-D104-4B61-AA89-FD67F7939DE2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1215" windowWidth="27000" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
   <si>
     <t>variable</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>necessary??</t>
+  </si>
+  <si>
+    <t>trees_to_replace</t>
   </si>
 </sst>
 </file>
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,13 +619,13 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -733,56 +736,53 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
       </c>
       <c r="D13">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
         <v>20</v>
       </c>
-      <c r="B14">
-        <v>500</v>
-      </c>
       <c r="C14" t="s">
         <v>35</v>
       </c>
       <c r="D14">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
       </c>
       <c r="D15">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -793,16 +793,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
       </c>
       <c r="D16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -813,16 +813,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -833,212 +833,212 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18">
-        <v>2000</v>
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
       </c>
       <c r="D18">
-        <v>5000</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
       </c>
       <c r="D19">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
       </c>
       <c r="D21">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
       </c>
       <c r="D22">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>8000</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
       <c r="D24">
-        <v>12000</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>8000</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
-      <c r="D25" t="s">
-        <v>40</v>
+      <c r="D25">
+        <v>12000</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>500</v>
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
       </c>
-      <c r="D26">
-        <v>1000</v>
+      <c r="D26" t="s">
+        <v>40</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
-      </c>
-      <c r="G26" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>39</v>
@@ -1050,6 +1050,26 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
         <v>36</v>
       </c>
     </row>

--- a/input_estimates_lukas.xlsx
+++ b/input_estimates_lukas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a631459e6cf3f3cb/Uni/Master/2021_ss_decision-analysis/Agroforestry/Nuts_and_chicken/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{0B96897B-0945-4460-980E-6D917B39D819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{492FE78B-D104-4B61-AA89-FD67F7939DE2}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="8_{0B96897B-0945-4460-980E-6D917B39D819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73FB2815-CB9A-4237-976E-3CA3812A3A99}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1215" windowWidth="27000" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="44">
   <si>
     <t>variable</t>
   </si>
@@ -147,22 +147,16 @@
     <t>0.1</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>pro Huhn</t>
-  </si>
-  <si>
-    <t>pro Baum</t>
+    <t>trees_to_replace</t>
   </si>
   <si>
     <t>total</t>
   </si>
   <si>
-    <t>necessary??</t>
-  </si>
-  <si>
-    <t>trees_to_replace</t>
+    <t>per chicken</t>
+  </si>
+  <si>
+    <t>0.05</t>
   </si>
 </sst>
 </file>
@@ -483,7 +477,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +525,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -551,7 +545,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -571,7 +565,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -591,7 +585,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -599,19 +593,19 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -619,19 +613,19 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -651,7 +645,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -659,19 +653,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
       </c>
       <c r="D9">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -679,19 +673,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -699,19 +693,19 @@
         <v>17</v>
       </c>
       <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
         <v>200</v>
       </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11">
-        <v>500</v>
-      </c>
       <c r="E11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -725,27 +719,27 @@
         <v>35</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -753,22 +747,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
       </c>
       <c r="D14">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -787,9 +778,6 @@
       <c r="E15" t="s">
         <v>36</v>
       </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -807,9 +795,6 @@
       <c r="E16" t="s">
         <v>36</v>
       </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -827,9 +812,6 @@
       <c r="E17" t="s">
         <v>36</v>
       </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -847,9 +829,6 @@
       <c r="E18" t="s">
         <v>36</v>
       </c>
-      <c r="G18" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -867,22 +846,19 @@
       <c r="E19" t="s">
         <v>36</v>
       </c>
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="D20">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -950,13 +926,13 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
@@ -967,13 +943,13 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>8000</v>
+        <v>55000</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="D25">
-        <v>12000</v>
+        <v>65000</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -987,13 +963,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
         <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" t="s">
-        <v>40</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>

--- a/input_estimates_lukas.xlsx
+++ b/input_estimates_lukas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a631459e6cf3f3cb/Uni/Master/2021_ss_decision-analysis/Agroforestry/Nuts_and_chicken/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af5f397540487a4/R/Nuts_and_chicken/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{0B96897B-0945-4460-980E-6D917B39D819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73FB2815-CB9A-4237-976E-3CA3812A3A99}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="8_{0B96897B-0945-4460-980E-6D917B39D819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F73048B-19CC-4F5F-AEDB-780005DF5BBA}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11490" yWindow="-7050" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
   <si>
     <t>variable</t>
   </si>
@@ -156,7 +156,13 @@
     <t>per chicken</t>
   </si>
   <si>
-    <t>0.05</t>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>chicken_cost</t>
   </si>
 </sst>
 </file>
@@ -192,8 +198,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -474,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D2" sqref="D2:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +521,7 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>200</v>
       </c>
       <c r="C2" t="s">
@@ -532,7 +541,7 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>400</v>
       </c>
       <c r="C3" t="s">
@@ -552,7 +561,7 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1500</v>
       </c>
       <c r="C4" t="s">
@@ -572,7 +581,7 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>500</v>
       </c>
       <c r="C5" t="s">
@@ -592,7 +601,7 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1500</v>
       </c>
       <c r="C6" t="s">
@@ -612,7 +621,7 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>150</v>
       </c>
       <c r="C7" t="s">
@@ -632,7 +641,7 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>5000</v>
       </c>
       <c r="C8" t="s">
@@ -652,7 +661,7 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>150</v>
       </c>
       <c r="C9" t="s">
@@ -672,7 +681,7 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>50</v>
       </c>
       <c r="C10" t="s">
@@ -692,7 +701,7 @@
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>100</v>
       </c>
       <c r="C11" t="s">
@@ -712,14 +721,14 @@
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
+      <c r="C12">
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -732,7 +741,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>20</v>
       </c>
       <c r="C13" t="s">
@@ -749,7 +758,7 @@
       <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>5</v>
       </c>
       <c r="C14" t="s">
@@ -766,7 +775,7 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>500</v>
       </c>
       <c r="C15" t="s">
@@ -783,7 +792,7 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>200</v>
       </c>
       <c r="C16" t="s">
@@ -800,7 +809,7 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>100</v>
       </c>
       <c r="C17" t="s">
@@ -817,7 +826,7 @@
       <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C18" t="s">
@@ -834,7 +843,7 @@
       <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>2000</v>
       </c>
       <c r="C19" t="s">
@@ -851,14 +860,14 @@
       <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>200</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="D20">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -868,7 +877,7 @@
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" t="s">
@@ -888,7 +897,7 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>200</v>
       </c>
       <c r="C22" t="s">
@@ -905,7 +914,7 @@
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>100</v>
       </c>
       <c r="C23" t="s">
@@ -925,7 +934,7 @@
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>12</v>
       </c>
       <c r="C24" t="s">
@@ -942,14 +951,14 @@
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>55000</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="D25">
-        <v>65000</v>
+        <v>130000</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -962,14 +971,14 @@
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -979,7 +988,7 @@
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>500</v>
       </c>
       <c r="C27" t="s">
@@ -999,7 +1008,7 @@
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" t="s">
@@ -1016,7 +1025,7 @@
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C29" t="s">
@@ -1036,7 +1045,7 @@
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C30" t="s">
@@ -1046,6 +1055,23 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
         <v>36</v>
       </c>
     </row>

--- a/input_estimates_lukas.xlsx
+++ b/input_estimates_lukas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a631459e6cf3f3cb/Uni/Master/2021_ss_decision-analysis/Agroforestry/Nuts_and_chicken/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{0B96897B-0945-4460-980E-6D917B39D819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73FB2815-CB9A-4237-976E-3CA3812A3A99}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{0B96897B-0945-4460-980E-6D917B39D819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D70738C-32EE-4F4C-A431-26E1449F8FE7}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,13 +513,13 @@
         <v>7</v>
       </c>
       <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2">
         <v>200</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2">
-        <v>500</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -559,7 +559,7 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -653,13 +653,13 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
       </c>
       <c r="D9">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -767,13 +767,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -869,13 +869,13 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -889,13 +889,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
       </c>
       <c r="D22">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -906,13 +906,13 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -932,7 +932,7 @@
         <v>35</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>

--- a/input_estimates_lukas.xlsx
+++ b/input_estimates_lukas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a631459e6cf3f3cb/Uni/Master/2021_ss_decision-analysis/Agroforestry/Nuts_and_chicken/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{0B96897B-0945-4460-980E-6D917B39D819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D70738C-32EE-4F4C-A431-26E1449F8FE7}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{0B96897B-0945-4460-980E-6D917B39D819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAB3011F-B7C4-4823-8676-1211420BDBAE}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="990" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
   <si>
     <t>variable</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>0.05</t>
+  </si>
+  <si>
+    <t>total / final</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +516,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -525,7 +528,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -553,19 +556,19 @@
         <v>9</v>
       </c>
       <c r="B4">
+        <v>900</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4">
         <v>1500</v>
       </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4">
-        <v>2500</v>
-      </c>
       <c r="E4" t="s">
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -593,13 +596,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
